--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3707263.267063415</v>
+        <v>3704765.531712965</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.485740739953973</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>412.9385639094162</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36059768091647</v>
+        <v>1.360597680916527</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>155.1464635459283</v>
       </c>
       <c r="T2" t="n">
         <v>212.7466796050973</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>126.3633049643514</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>136.0785727665282</v>
       </c>
       <c r="H3" t="n">
-        <v>100.018744405379</v>
+        <v>98.51394015369119</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370735</v>
+        <v>45.84481919370737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353349</v>
+        <v>21.62032152353352</v>
       </c>
       <c r="S3" t="n">
         <v>148.187383735635</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>204.2681809517899</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>13.55798963111228</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.5587419097207</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775194</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>245.95779067299</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>9.29167271660484</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>295.2468486830498</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>219.3750830751128</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>184.6739744009185</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>289.7349086064126</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>114.9296009985463</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>125.4189382090671</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>56.27740120129934</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,10 +1576,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.05096575280744</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>29.249233057517</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>26.1362719570585</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>206.5509998577711</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>66.25628701154714</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,7 +2722,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979376</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>132.6315337216688</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,10 +3199,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>26.1362719570585</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>119.6760079449704</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3913,10 +3913,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>205.090950487783</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1319.780116977249</v>
+        <v>917.2404611590202</v>
       </c>
       <c r="C2" t="n">
-        <v>1319.780116977249</v>
+        <v>917.2404611590202</v>
       </c>
       <c r="D2" t="n">
-        <v>1319.780116977249</v>
+        <v>915.7397129368445</v>
       </c>
       <c r="E2" t="n">
-        <v>1319.780116977249</v>
+        <v>915.7397129368445</v>
       </c>
       <c r="F2" t="n">
         <v>908.7942121876411</v>
@@ -4322,58 +4322,58 @@
         <v>491.6845516730792</v>
       </c>
       <c r="H2" t="n">
-        <v>173.237370687019</v>
+        <v>173.2373706870191</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>239.5208398512382</v>
+        <v>72.11519083088513</v>
       </c>
       <c r="K2" t="n">
-        <v>319.356318132175</v>
+        <v>472.8546275572749</v>
       </c>
       <c r="L2" t="n">
-        <v>866.5448368294292</v>
+        <v>1022.283962163557</v>
       </c>
       <c r="M2" t="n">
-        <v>1494.497380751052</v>
+        <v>1205.218107927276</v>
       </c>
       <c r="N2" t="n">
-        <v>2117.978855791686</v>
+        <v>1632.597796005106</v>
       </c>
       <c r="O2" t="n">
-        <v>2284.534915538663</v>
+        <v>2176.146035202201</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.185658263122</v>
+        <v>2602.377499016428</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2633.671635888808</v>
+        <v>2633.671635888807</v>
       </c>
       <c r="S2" t="n">
-        <v>2633.671635888808</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2418.775999924063</v>
+        <v>2262.062400382721</v>
       </c>
       <c r="U2" t="n">
-        <v>2165.082546369134</v>
+        <v>2008.368946827792</v>
       </c>
       <c r="V2" t="n">
-        <v>1834.019659025564</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="W2" t="n">
-        <v>1834.019659025564</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="X2" t="n">
-        <v>1706.37995704137</v>
+        <v>1303.840301223142</v>
       </c>
       <c r="Y2" t="n">
-        <v>1706.37995704137</v>
+        <v>1303.840301223142</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.6504081935055</v>
+        <v>965.1304038988715</v>
       </c>
       <c r="C3" t="n">
-        <v>792.1973789123786</v>
+        <v>790.6773746177445</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2629692511273</v>
+        <v>641.7429649564932</v>
       </c>
       <c r="E3" t="n">
-        <v>484.0255142456718</v>
+        <v>482.5055099510377</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725568</v>
+        <v>335.9709519779227</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0378524679829</v>
+        <v>198.5178481733488</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507483</v>
+        <v>99.00881771507485</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4410,22 +4410,22 @@
         <v>170.2762045496335</v>
       </c>
       <c r="K3" t="n">
-        <v>497.8519368624348</v>
+        <v>497.8519368624347</v>
       </c>
       <c r="L3" t="n">
-        <v>999.722330600029</v>
+        <v>670.7564150061195</v>
       </c>
       <c r="M3" t="n">
-        <v>1176.312616922418</v>
+        <v>1308.394714441008</v>
       </c>
       <c r="N3" t="n">
-        <v>1437.313937931689</v>
+        <v>1960.568593743717</v>
       </c>
       <c r="O3" t="n">
-        <v>1984.020177892692</v>
+        <v>2507.274833704721</v>
       </c>
       <c r="P3" t="n">
-        <v>2405.797066257506</v>
+        <v>2613.773581115997</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4449,10 +4449,10 @@
         <v>1548.957539889426</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.626043978527</v>
+        <v>1341.106039683893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.865745213574</v>
+        <v>1133.34574091894</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>795.3377504204685</v>
+        <v>66.39585856093839</v>
       </c>
       <c r="C4" t="n">
-        <v>795.3377504204685</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D4" t="n">
-        <v>645.2211110081328</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E4" t="n">
-        <v>497.3080174257396</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>350.4180699278293</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
-        <v>350.4180699278293</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>196.0761709613024</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
-        <v>71.26936095148351</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
         <v>52.70091953961285</v>
@@ -4492,16 +4492,16 @@
         <v>152.6313247131525</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039134</v>
+        <v>336.0342731039133</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856117</v>
+        <v>539.7960902856116</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066373</v>
+        <v>744.1475233066371</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249429</v>
+        <v>916.8828514249428</v>
       </c>
       <c r="P4" t="n">
         <v>1041.167083351319</v>
@@ -4513,25 +4513,25 @@
         <v>1043.779963221469</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.779963221469</v>
+        <v>836.1686462697003</v>
       </c>
       <c r="T4" t="n">
-        <v>1043.779963221469</v>
+        <v>610.4975168037859</v>
       </c>
       <c r="U4" t="n">
-        <v>1043.779963221469</v>
+        <v>610.4975168037859</v>
       </c>
       <c r="V4" t="n">
-        <v>1043.779963221469</v>
+        <v>355.813028597899</v>
       </c>
       <c r="W4" t="n">
-        <v>795.3377504204685</v>
+        <v>66.39585856093839</v>
       </c>
       <c r="X4" t="n">
-        <v>795.3377504204685</v>
+        <v>66.39585856093839</v>
       </c>
       <c r="Y4" t="n">
-        <v>795.3377504204685</v>
+        <v>66.39585856093839</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2030.106783272542</v>
+        <v>776.7051658377195</v>
       </c>
       <c r="C5" t="n">
-        <v>1661.14426633213</v>
+        <v>776.7051658377195</v>
       </c>
       <c r="D5" t="n">
-        <v>1302.87856772538</v>
+        <v>776.7051658377195</v>
       </c>
       <c r="E5" t="n">
-        <v>917.0903151271357</v>
+        <v>390.9169132394753</v>
       </c>
       <c r="F5" t="n">
-        <v>907.7047871305651</v>
+        <v>383.9714124902719</v>
       </c>
       <c r="G5" t="n">
-        <v>490.6170053669925</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
@@ -4568,19 +4568,19 @@
         <v>241.3408185533492</v>
       </c>
       <c r="K5" t="n">
-        <v>644.8079315733946</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L5" t="n">
-        <v>784.1365874146478</v>
+        <v>876.7172313741407</v>
       </c>
       <c r="M5" t="n">
-        <v>1415.85439839796</v>
+        <v>1063.416644199549</v>
       </c>
       <c r="N5" t="n">
-        <v>1610.188611289942</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O5" t="n">
-        <v>2157.349816057019</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P5" t="n">
         <v>2389.870016205742</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2420.246115248354</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U5" t="n">
-        <v>2420.246115248354</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V5" t="n">
-        <v>2420.246115248354</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="W5" t="n">
-        <v>2420.246115248354</v>
+        <v>1926.910096138733</v>
       </c>
       <c r="X5" t="n">
-        <v>2420.246115248354</v>
+        <v>1553.444337877653</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.106783272542</v>
+        <v>1163.305005901841</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4653,16 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M6" t="n">
-        <v>1645.695465035541</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N6" t="n">
-        <v>2297.86934433825</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O6" t="n">
-        <v>2457.381657007011</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P6" t="n">
-        <v>2566.07128453431</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C7" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D7" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
         <v>52.70091953961285</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="T7" t="n">
-        <v>1052.635600998958</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="U7" t="n">
-        <v>1052.635600998958</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0446079937932</v>
+        <v>460.0328667648788</v>
       </c>
       <c r="W7" t="n">
-        <v>831.0446079937932</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="X7" t="n">
-        <v>603.0550570957759</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y7" t="n">
-        <v>382.2624779522457</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1092.583537404008</v>
+        <v>1050.180666486499</v>
       </c>
       <c r="C8" t="n">
-        <v>723.6210204635966</v>
+        <v>681.2181495460875</v>
       </c>
       <c r="D8" t="n">
-        <v>365.355321856846</v>
+        <v>681.2181495460875</v>
       </c>
       <c r="E8" t="n">
-        <v>72.69379801198481</v>
+        <v>295.4298969478432</v>
       </c>
       <c r="F8" t="n">
-        <v>65.74829726278134</v>
+        <v>288.4843961986398</v>
       </c>
       <c r="G8" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
@@ -4814,10 +4814,10 @@
         <v>1384.320602645002</v>
       </c>
       <c r="N8" t="n">
-        <v>1731.974486189138</v>
+        <v>2011.628270704848</v>
       </c>
       <c r="O8" t="n">
-        <v>2279.135690956215</v>
+        <v>2181.797296021808</v>
       </c>
       <c r="P8" t="n">
         <v>2389.870016205742</v>
@@ -4838,16 +4838,16 @@
         <v>2166.554411993505</v>
       </c>
       <c r="V8" t="n">
-        <v>1835.491524649934</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="W8" t="n">
-        <v>1482.72286937982</v>
+        <v>1813.785756723391</v>
       </c>
       <c r="X8" t="n">
-        <v>1482.72286937982</v>
+        <v>1440.319998462311</v>
       </c>
       <c r="Y8" t="n">
-        <v>1092.583537404008</v>
+        <v>1050.180666486499</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>52.70091953961285</v>
+        <v>155.3912799413352</v>
       </c>
       <c r="K9" t="n">
-        <v>157.1026308627116</v>
+        <v>484.8196842471451</v>
       </c>
       <c r="L9" t="n">
-        <v>661.4641707288301</v>
+        <v>989.1812241132636</v>
       </c>
       <c r="M9" t="n">
-        <v>1302.009520195935</v>
+        <v>1168.678560467868</v>
       </c>
       <c r="N9" t="n">
-        <v>1954.183399498644</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O9" t="n">
-        <v>2503.619408251367</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P9" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.045976980643</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>331.4672372655215</v>
+        <v>179.3867157103877</v>
       </c>
       <c r="C10" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D10" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
         <v>52.70091953961285</v>
@@ -4984,28 +4984,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.635600998958</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="U10" t="n">
-        <v>995.7897411996654</v>
+        <v>407.376266608405</v>
       </c>
       <c r="V10" t="n">
-        <v>741.1052529937785</v>
+        <v>407.376266608405</v>
       </c>
       <c r="W10" t="n">
-        <v>741.1052529937785</v>
+        <v>407.376266608405</v>
       </c>
       <c r="X10" t="n">
-        <v>513.1157020957612</v>
+        <v>179.3867157103877</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.1157020957612</v>
+        <v>179.3867157103877</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2420.562808876161</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2420.562808876161</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2420.562808876161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2131.487582220359</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1876.803094014472</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.385923977512</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5598,13 +5598,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5750,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6066,16 +6066,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>184.7035232280589</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,7 +6242,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,28 +6482,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1251.82540160009</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>1031.03282245656</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
         <v>1344.266747951538</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6926,13 +6926,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6947,40 +6947,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>642.8692823226939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>473.9330993947871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>323.8164599824514</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>175.9033664000582</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2326.078227070189</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>824.5177471529337</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>789.7592298206043</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>620.8230468926974</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,22 +7488,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7685,10 +7685,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>738.7889117913853</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1366.386875345992</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892232</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768874</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>266.4891497944943</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>119.599202296584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>415.3977641372904</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>239.2643113182432</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>38.55154167324784</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>65.98845490199776</v>
+        <v>461.112251157996</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>157.2150585937767</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>123.0160352517129</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>46.70479923672272</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8462,13 +8462,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>154.8683541940946</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>98.3216110448561</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>109.9608419513449</v>
       </c>
       <c r="K9" t="n">
-        <v>37.16554713105222</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>458.0981188384286</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-1.777645612199493e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>180.5336875992874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.23897475306318</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>10.85445046951719</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>48.39475227997582</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>154.8900140445861</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>61.35027805667418</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>4.186823682520725</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>20.61870490125418</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.9994244361429</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>651816.7194021281</v>
+        <v>651816.7194021282</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="J2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="K2" t="n">
-        <v>766789.2697055063</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="M2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918878</v>
+        <v>787455.5478918876</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.24700849981</v>
+        <v>4906.24700849999</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>775688.3472765845</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.9924002808</v>
+        <v>172360.992400281</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157137</v>
+        <v>128077.5968157139</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707321</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="G4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="F4" t="n">
-        <v>6897.424496707385</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707383</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707425</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707386</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.42449670735</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="P4" t="n">
         <v>6897.424496707392</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707381</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707385</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707414</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707371</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707422</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707362</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-284858.4678822411</v>
+        <v>-284858.467882241</v>
       </c>
       <c r="C6" t="n">
-        <v>498573.5441034747</v>
+        <v>498573.5441034744</v>
       </c>
       <c r="D6" t="n">
         <v>503479.7911119744</v>
       </c>
       <c r="E6" t="n">
-        <v>-116919.0318916929</v>
+        <v>-116953.7698171288</v>
       </c>
       <c r="F6" t="n">
-        <v>658769.3153848913</v>
+        <v>658734.5774594558</v>
       </c>
       <c r="G6" t="n">
-        <v>658769.3153848913</v>
+        <v>658734.5774594557</v>
       </c>
       <c r="H6" t="n">
-        <v>658769.3153848913</v>
+        <v>658734.5774594559</v>
       </c>
       <c r="I6" t="n">
-        <v>658769.3153848912</v>
+        <v>658734.5774594557</v>
       </c>
       <c r="J6" t="n">
-        <v>486408.3229846107</v>
+        <v>486373.5850591745</v>
       </c>
       <c r="K6" t="n">
-        <v>658769.3153848918</v>
+        <v>658734.5774594559</v>
       </c>
       <c r="L6" t="n">
-        <v>658769.3153848913</v>
+        <v>658734.577459456</v>
       </c>
       <c r="M6" t="n">
-        <v>530691.7185691778</v>
+        <v>530656.9806437416</v>
       </c>
       <c r="N6" t="n">
-        <v>658769.3153848913</v>
+        <v>658734.5774594557</v>
       </c>
       <c r="O6" t="n">
-        <v>658769.3153848915</v>
+        <v>658734.5774594557</v>
       </c>
       <c r="P6" t="n">
-        <v>658769.3153848915</v>
+        <v>658734.5774594556</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225498</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225498</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915515022</v>
+        <v>5.387915915515219</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26981,10 +26981,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544882</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>353.197300880729</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459283</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>243.3677957141176</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.504804251687773</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.504804251687602</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>153.6888314675155</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.38275699775197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>129.6100444894001</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5352037822505</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.4144181712553</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>40.56520766360103</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>397.5843730251066</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>53.99412003436316</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
@@ -27831,13 +27831,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>32.76256024871518</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>101.8490239356725</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>92.19546146584918</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>297.9873029473904</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>41.82788288956074</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,10 +28026,10 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>229.9832534567977</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.30634784682603e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718793</v>
+        <v>2.364173605718792</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956759</v>
+        <v>24.21209293956758</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447383</v>
+        <v>91.1448029344738</v>
       </c>
       <c r="J2" t="n">
         <v>200.6562795683755</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984521</v>
+        <v>300.731748298452</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844687</v>
+        <v>373.0843262844685</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451702</v>
+        <v>415.1281986451701</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024187</v>
+        <v>421.8454069024186</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105525</v>
+        <v>398.3366556105523</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193698</v>
+        <v>339.9711197193696</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645654</v>
+        <v>255.3041524645653</v>
       </c>
       <c r="R2" t="n">
         <v>148.5085202602332</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031704</v>
+        <v>53.87360604031701</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903402</v>
+        <v>10.34916995903401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575034</v>
+        <v>0.1891338884575033</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31124,43 +31124,43 @@
         <v>12.2166998311175</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770773</v>
+        <v>43.5518136577077</v>
       </c>
       <c r="J3" t="n">
         <v>119.5095054777939</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555191</v>
+        <v>204.260780055519</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305504</v>
+        <v>274.6538261305503</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102897</v>
+        <v>320.5080605102896</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704981</v>
+        <v>328.990955170498</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808498</v>
+        <v>300.9624503808496</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489527</v>
+        <v>241.5488997489526</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361689</v>
+        <v>161.4690426361688</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910964</v>
+        <v>78.53751262910961</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820281</v>
+        <v>23.4957873682028</v>
       </c>
       <c r="T3" t="n">
-        <v>5.09861359890871</v>
+        <v>5.098613598908709</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753071</v>
+        <v>0.08322002609753067</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,25 +31200,25 @@
         <v>1.060486889942303</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577939</v>
+        <v>9.428692530577935</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753764</v>
+        <v>31.89173301753763</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892083</v>
+        <v>74.97642311892081</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314785</v>
+        <v>123.2092950314784</v>
       </c>
       <c r="L4" t="n">
         <v>157.6654781646948</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934103</v>
+        <v>166.2361403934102</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308982</v>
+        <v>162.2834165308981</v>
       </c>
       <c r="O4" t="n">
         <v>149.8950014983903</v>
@@ -31227,19 +31227,19 @@
         <v>128.2610689435672</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780506</v>
+        <v>88.80131584780503</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776937</v>
+        <v>47.68334688776935</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472177</v>
+        <v>18.48139425472176</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026203</v>
+        <v>4.531171257026202</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139842</v>
+        <v>0.0578447394513984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,28 +31835,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>543.0832917018711</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32318,16 +32318,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32549,10 +32549,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,19 +32786,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>216.857296338707</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>316.6133175811573</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33266,16 +33266,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>403.8524967138027</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33743,10 +33743,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>353.6230700590495</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,16 +33983,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>658.2124561388958</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34208,10 +34208,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>170.9292585737929</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,13 +34220,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>640.7275049411307</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>188.706990213763</v>
+        <v>19.61037504168917</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347154</v>
+        <v>404.7873098246362</v>
       </c>
       <c r="L2" t="n">
-        <v>552.7156754517719</v>
+        <v>554.9791258649317</v>
       </c>
       <c r="M2" t="n">
-        <v>634.29549891073</v>
+        <v>184.7819654178973</v>
       </c>
       <c r="N2" t="n">
-        <v>629.779267717812</v>
+        <v>431.696654624071</v>
       </c>
       <c r="O2" t="n">
-        <v>168.2384441888658</v>
+        <v>549.038625451611</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239641002</v>
+        <v>430.5368321355827</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.3134532500206</v>
+        <v>32.99846259011585</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>118.762914151536</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937387</v>
+        <v>330.8845780937386</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541354</v>
+        <v>174.650988023924</v>
       </c>
       <c r="M3" t="n">
-        <v>178.3740265882714</v>
+        <v>644.0790903382713</v>
       </c>
       <c r="N3" t="n">
-        <v>263.6376979891625</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131348</v>
+        <v>552.2285252131347</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745597</v>
+        <v>107.5744923346224</v>
       </c>
       <c r="Q3" t="n">
-        <v>231.5645562859964</v>
+        <v>21.48726855014729</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,13 +34860,13 @@
         <v>100.9398032055956</v>
       </c>
       <c r="L4" t="n">
-        <v>185.255503425011</v>
+        <v>185.2555034250109</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552509</v>
+        <v>205.8200173552508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101268</v>
+        <v>206.4155889101267</v>
       </c>
       <c r="O4" t="n">
         <v>174.48012941243</v>
@@ -34875,7 +34875,7 @@
         <v>125.5396282084607</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110672</v>
+        <v>2.639272596110644</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>353.5122433331529</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>234.8688890391135</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
         <v>247.6524856312129</v>
@@ -35021,19 +35021,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>69.67140651144695</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35182,13 +35182,13 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>351.1655389334708</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>210.1744648322566</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>103.7276367694165</v>
       </c>
       <c r="K9" t="n">
-        <v>105.4562740637361</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35662,7 +35662,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>409.1088842875408</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35966,16 +35966,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36197,10 +36197,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36434,19 +36434,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>90.01966967204031</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>174.479283659139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>272.5107846304694</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193529</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>211.4890361370311</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,16 +37631,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>526.8707440555626</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,10 +37856,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>44.09163190712619</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,13 +37868,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>498.1312604966863</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
